--- a/biology/Zoologie/Fauvette_de_Ménétries/Fauvette_de_Ménétries.xlsx
+++ b/biology/Zoologie/Fauvette_de_Ménétries/Fauvette_de_Ménétries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fauvette_de_M%C3%A9n%C3%A9tries</t>
+          <t>Fauvette_de_Ménétries</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curruca mystacea
 La Fauvette de Ménétries (Curruca mystacea) est une espèce d'oiseaux de la famille des Sylviidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fauvette_de_M%C3%A9n%C3%A9tries</t>
+          <t>Fauvette_de_Ménétries</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Curruca mystacea a été décrite pour la première fois en 1832 par l'entomologiste et ornithologue français Édouard Ménétries (1802-1861) sous le protonyme de Sylvia mystacea[1].
-La fauvette de Ménétries faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Curruca mystacea a été décrite pour la première fois en 1832 par l'entomologiste et ornithologue français Édouard Ménétries (1802-1861) sous le protonyme de Sylvia mystacea.
+La fauvette de Ménétries faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fauvette_de_M%C3%A9n%C3%A9tries</t>
+          <t>Fauvette_de_Ménétries</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom vernaculaire commémore l'auteur de cette espèce, Édouard Ménétries.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fauvette_de_M%C3%A9n%C3%A9tries</t>
+          <t>Fauvette_de_Ménétries</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers l'Asie centrale et l'Asie de l'Ouest ; elle hiverne dans le Nord-Est de l'Afrique.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fauvette_de_M%C3%A9n%C3%A9tries</t>
+          <t>Fauvette_de_Ménétries</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Curruca mystacea mystacea (Ménétriés, 1832)
 sous-espèce Curruca mystacea rubescens (Blanford, 1874)
 sous-espèce Curruca mystacea turcmenica (Zarudny &amp; Bilkevitch, 1918)</t>
